--- a/xlslist/F1_other_class.xlsx
+++ b/xlslist/F1_other_class.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -520,19 +520,19 @@
         <v>6089</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6514287344958981</v>
+        <v>0.654937947113012</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7244571458629289</v>
+        <v>0.736001206806953</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6953350217525686</v>
+        <v>0.6988788482919688</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8316084181074744</v>
+        <v>0.8359647619519862</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8715327789566336</v>
+        <v>0.8661543726220495</v>
       </c>
     </row>
     <row r="4">
@@ -551,19 +551,19 @@
         <v>5799</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7350165968123608</v>
+        <v>0.7496435699182936</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7868247355778311</v>
+        <v>0.8000792738195573</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7733518146929118</v>
+        <v>0.7949409567565489</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8668578688678977</v>
+        <v>0.8817352337062997</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9233831373656802</v>
+        <v>0.9234266751942479</v>
       </c>
     </row>
     <row r="5">
@@ -582,19 +582,19 @@
         <v>5788</v>
       </c>
       <c r="E5" t="n">
-        <v>0.700330176926194</v>
+        <v>0.7237581828631745</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7472036615233791</v>
+        <v>0.763971894656299</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7336574357581281</v>
+        <v>0.751247925014661</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8229411544974807</v>
+        <v>0.841000503172785</v>
       </c>
       <c r="I5" t="n">
-        <v>0.900488621142067</v>
+        <v>0.9038902749570614</v>
       </c>
     </row>
     <row r="6">
@@ -613,19 +613,19 @@
         <v>5778</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5657962192643354</v>
+        <v>0.5824484243387079</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5032003181481581</v>
+        <v>0.5225821788052979</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4650100345473898</v>
+        <v>0.4434677292712882</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6460161759068839</v>
+        <v>0.689064135690569</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8207575118605912</v>
+        <v>0.8298999850734716</v>
       </c>
     </row>
     <row r="7">
@@ -638,25 +638,25 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D7" t="n">
-        <v>5854</v>
+        <v>5845</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4578603915846978</v>
+        <v>0.478005496950284</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4515633738835227</v>
+        <v>0.4561834249019896</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3714031801201015</v>
+        <v>0.3802516783727736</v>
       </c>
       <c r="H7" t="n">
-        <v>0.562220568972161</v>
+        <v>0.5895970154962428</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7880742012876339</v>
+        <v>0.7962965043201163</v>
       </c>
     </row>
     <row r="8">
@@ -669,25 +669,25 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D8" t="n">
-        <v>5847</v>
+        <v>5838</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4367181356695256</v>
+        <v>0.4435437848486384</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4800797342987216</v>
+        <v>0.479821233466352</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3810802587877228</v>
+        <v>0.3832090333580366</v>
       </c>
       <c r="H8" t="n">
-        <v>0.518577615799529</v>
+        <v>0.5461513139618244</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7724315349314038</v>
+        <v>0.788353626543978</v>
       </c>
     </row>
     <row r="9">
@@ -700,25 +700,25 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D9" t="n">
-        <v>6030</v>
+        <v>5990</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2882532285379668</v>
+        <v>0.3042229653832192</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3509805715916905</v>
+        <v>0.3516626362800118</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1592367562767199</v>
+        <v>0.1680898355702084</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3008253790067419</v>
+        <v>0.3428587124705174</v>
       </c>
       <c r="I9" t="n">
-        <v>0.71049334125673</v>
+        <v>0.732309402087617</v>
       </c>
     </row>
     <row r="10">
@@ -731,25 +731,25 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="D10" t="n">
-        <v>5092</v>
+        <v>4673</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3084085297393925</v>
+        <v>0.360007795286641</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2326219174480965</v>
+        <v>0.2956360122035187</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05713595510600342</v>
+        <v>0.06818398303961166</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04741362142187332</v>
+        <v>0.06206717053352025</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5674506569081751</v>
+        <v>0.6560871281898071</v>
       </c>
     </row>
   </sheetData>
